--- a/accuracies.xlsx
+++ b/accuracies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bob\Documents\taf_MA2_2018\Deep_learning\miniproject_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA8630C-9096-446C-82A9-FD2D7F142EC8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F51D34-CA4F-4174-8C96-42A8C29DCF50}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20130" windowHeight="11100" xr2:uid="{332586C6-9EDE-494F-8FE1-8CC2717CA8C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>eta</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>0.2/((iter+1)**1.15)</t>
+  </si>
+  <si>
+    <t>Net1</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C511B0-E455-4FA5-8321-1D4832B6C64E}">
   <dimension ref="B2:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,6 +858,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
